--- a/利润表/300919.xlsx
+++ b/利润表/300919.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -729,48 +729,48 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-03 00:00:00</t>
+          <t>2020-12-17 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2017-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>62657150.56</v>
+        <v>18233340.34</v>
       </c>
       <c r="P2" t="n">
-        <v>1568513517.58</v>
+        <v>1861611886.82</v>
       </c>
       <c r="Q2" t="n">
-        <v>1510702102.43</v>
+        <v>1840335733.27</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>1385477183.16</v>
+        <v>1680814621.66</v>
       </c>
       <c r="T2" t="n">
-        <v>1385477183.16</v>
+        <v>1680814621.66</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>13139073.38</v>
+        <v>19448585.36</v>
       </c>
       <c r="W2" t="n">
-        <v>28309431.23</v>
+        <v>32049881.2</v>
       </c>
       <c r="X2" t="n">
-        <v>13552097.08</v>
+        <v>35327673.89</v>
       </c>
       <c r="Y2" t="n">
-        <v>69143225.39</v>
+        <v>25135946.81</v>
       </c>
       <c r="Z2" t="n">
-        <v>73528909.38</v>
+        <v>25492619.02</v>
       </c>
       <c r="AA2" t="n">
-        <v>10871758.82</v>
+        <v>7259278.68</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5103082.34</v>
+        <v>3372373.04</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>36827688.09</v>
+        <v>11700680.43</v>
       </c>
       <c r="AT2" t="inlineStr"/>
     </row>

--- a/利润表/300919.xlsx
+++ b/利润表/300919.xlsx
@@ -714,14 +714,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>003</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -734,43 +734,43 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-03-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>18233340.34</v>
+        <v>62657150.56</v>
       </c>
       <c r="P2" t="n">
-        <v>1861611886.82</v>
+        <v>1568513517.58</v>
       </c>
       <c r="Q2" t="n">
-        <v>1840335733.27</v>
+        <v>1510702102.43</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>1680814621.66</v>
+        <v>1385477183.16</v>
       </c>
       <c r="T2" t="n">
-        <v>1680814621.66</v>
+        <v>1385477183.16</v>
       </c>
       <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>19448585.36</v>
+        <v>13139073.38</v>
       </c>
       <c r="W2" t="n">
-        <v>32049881.2</v>
+        <v>28309431.23</v>
       </c>
       <c r="X2" t="n">
-        <v>35327673.89</v>
+        <v>13552097.08</v>
       </c>
       <c r="Y2" t="n">
-        <v>25135946.81</v>
+        <v>69143225.39</v>
       </c>
       <c r="Z2" t="n">
-        <v>25492619.02</v>
+        <v>73528909.38</v>
       </c>
       <c r="AA2" t="n">
-        <v>7259278.68</v>
+        <v>10871758.82</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +778,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>3372373.04</v>
+        <v>5103082.34</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -792,7 +792,7 @@
       <c r="AQ2" t="inlineStr"/>
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="n">
-        <v>11700680.43</v>
+        <v>36827688.09</v>
       </c>
       <c r="AT2" t="inlineStr"/>
     </row>

--- a/利润表/300919.xlsx
+++ b/利润表/300919.xlsx
@@ -714,7 +714,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>003</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -734,43 +734,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-03-31 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>62657150.56</v>
+        <v>179826999.88</v>
       </c>
       <c r="P2" t="n">
-        <v>1568513517.58</v>
+        <v>5311212819.9</v>
       </c>
       <c r="Q2" t="n">
-        <v>1510702102.43</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>5126617692.36</v>
+      </c>
+      <c r="R2" t="n">
+        <v>71.7571004062</v>
+      </c>
       <c r="S2" t="n">
-        <v>1385477183.16</v>
+        <v>4657329904.51</v>
       </c>
       <c r="T2" t="n">
-        <v>1385477183.16</v>
-      </c>
-      <c r="U2" t="inlineStr"/>
+        <v>4657329904.51</v>
+      </c>
+      <c r="U2" t="n">
+        <v>71.3810659336</v>
+      </c>
       <c r="V2" t="n">
-        <v>13139073.38</v>
+        <v>74306253.5</v>
       </c>
       <c r="W2" t="n">
-        <v>28309431.23</v>
+        <v>113713644.39</v>
       </c>
       <c r="X2" t="n">
-        <v>13552097.08</v>
+        <v>90270632.97</v>
       </c>
       <c r="Y2" t="n">
-        <v>69143225.39</v>
+        <v>212309404.28</v>
       </c>
       <c r="Z2" t="n">
-        <v>73528909.38</v>
+        <v>211928544.15</v>
       </c>
       <c r="AA2" t="n">
-        <v>10871758.82</v>
+        <v>32101544.27</v>
       </c>
       <c r="AB2" t="inlineStr"/>
       <c r="AC2" t="inlineStr"/>
@@ -778,7 +782,7 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>5103082.34</v>
+        <v>15527044.96</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
@@ -788,13 +792,21 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
-      <c r="AR2" t="inlineStr"/>
+      <c r="AP2" t="n">
+        <v>73.10424485990001</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>134.903766388341</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>184.834165558612</v>
+      </c>
       <c r="AS2" t="n">
-        <v>36827688.09</v>
-      </c>
-      <c r="AT2" t="inlineStr"/>
+        <v>121266643.64</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>176.740779630187</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
